--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Lương" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,6 +433,134 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>614</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-01-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Trần Nguyễn Yến Linh</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -457,7 +586,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +596,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>285714.2857142857</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +646,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="9">
@@ -747,7 +876,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>335714.2857142857</v>
       </c>
     </row>
     <row r="32">
@@ -773,11 +902,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>335714.2857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,20 +534,106 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>620</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Trần Thị Thanh Nhàn</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>621</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Trần Thị Ngọc Dung</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>50000</v>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>250000</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +682,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>285714.2857142857</v>
+        <v>232142.8571428571</v>
       </c>
     </row>
     <row r="4">
@@ -646,7 +732,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="9">
@@ -876,7 +962,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>335714.2857142857</v>
+        <v>482142.8571428572</v>
       </c>
     </row>
     <row r="32">
@@ -906,7 +992,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>335714.2857142857</v>
+        <v>482142.8571428572</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Thưởng" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,6 +659,143 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Ngày phát sinh</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notion id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Mã thưởng phạt</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id nhân sự</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Lượng thưởng phạt</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Lí do</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Họ và tên</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>f1df828e-4b4e-4cec-93fb-1de41e0d82f5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>e49d0ce3-124d-4e4b-b377-be2139cde3f5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Thưởng</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục lương</t>
         </is>
       </c>
@@ -758,17 +896,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Thưởng tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -778,27 +916,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -808,7 +946,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -818,7 +956,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -828,7 +966,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -838,7 +976,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -848,7 +986,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -858,7 +996,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -868,7 +1006,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -878,27 +1016,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -908,7 +1046,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -918,7 +1056,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -928,7 +1066,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -938,7 +1076,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -948,7 +1086,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -958,27 +1096,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>482142.8571428572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>4482142.857142857</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -988,11 +1126,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>482142.8571428572</v>
+      <c r="B35" t="n">
+        <v>4482142.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Thưởng" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,20 +621,147 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>630</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v/>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>633</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bạch Nhi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>635</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nguyễn Bích Thuỳ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Khách cũ giới thiệu</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>250000</v>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>500000</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,120 +786,285 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ngày phát sinh</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>notion id</t>
+          <t>Mã đơn thu nợ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Tiền tố</t>
+          <t>Lượng thu</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Mã thưởng phạt</t>
+          <t>Ngày thu</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>id nhân sự</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Loại</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lượng thưởng phạt</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Lí do</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Họ và tên</t>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08-05-2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>f1df828e-4b4e-4cec-93fb-1de41e0d82f5</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>9</v>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>181</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>e49d0ce3-124d-4e4b-b377-be2139cde3f5</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>HD-LUXURY-538</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Thưởng</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="I2" t="n">
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Ngô Xuân Nhi</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v/>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="R2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>110000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
+      <c r="C3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>4000000</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>110000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -785,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,7 +1102,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +1112,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>232142.8571428571</v>
+        <v>812500</v>
       </c>
     </row>
     <row r="4">
@@ -870,7 +1162,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>250000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="9">
@@ -886,21 +1178,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Thưởng tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4000000</v>
+        <v>-300000</v>
       </c>
     </row>
     <row r="12">
@@ -996,7 +1288,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1006,17 +1298,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1026,27 +1318,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1056,7 +1348,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1066,7 +1358,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1076,7 +1368,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1086,7 +1378,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1096,7 +1388,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1106,41 +1398,61 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4482142.857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1122500</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>4482142.857142857</v>
+      <c r="B37" t="n">
+        <v>1122500</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>812500</v>
+        <v>928571.4285714285</v>
       </c>
     </row>
     <row r="4">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1122500</v>
+        <v>1238571.428571429</v>
       </c>
     </row>
     <row r="35">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1122500</v>
+        <v>1238571.428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Đơn phụ phẫu 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn thu nợ" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Lương" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,20 +749,278 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>659</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nguyễn Như Ngọc</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Căng chỉ mặt</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>666</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lê Thị Bích Liên</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cắt mắt phượng</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>667</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lê Thị Bích Liên</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>668</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>669</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>671</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hồ Minh Trường</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>500000</v>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>800000</v>
       </c>
     </row>
   </sheetData>
@@ -770,6 +1029,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>649</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>H-Sa</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1071,7 +1458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1102,7 +1489,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -1112,7 +1499,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>928571.4285714285</v>
+        <v>2089285.714285714</v>
       </c>
     </row>
     <row r="4">
@@ -1162,7 +1549,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>500000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="9">
@@ -1192,7 +1579,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-300000</v>
+        <v>-2800000</v>
       </c>
     </row>
     <row r="12">
@@ -1282,7 +1669,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1809,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1238571.428571429</v>
+        <v>199285.7142857141</v>
       </c>
     </row>
     <row r="35">
@@ -1432,7 +1819,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="36">
@@ -1452,7 +1839,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1238571.428571429</v>
+        <v>299285.7142857141</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
@@ -1162,7 +1162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1359,7 +1359,7 @@
         <v>18000000</v>
       </c>
       <c r="O2" t="n">
-        <v>11000000</v>
+        <v>12000000</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>0.1</v>
       </c>
       <c r="S2" t="n">
-        <v>110000</v>
+        <v>240000</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1397,26 +1397,58 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="C3" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1000000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-538</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ngô Xuân Nhi</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
       <c r="K3" t="n">
         <v>10000000</v>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>8000000</v>
       </c>
@@ -1424,15 +1456,21 @@
         <v>18000000</v>
       </c>
       <c r="O3" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>12000000</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
+      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S3" t="n">
-        <v>110000</v>
+        <v>160000</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1450,6 +1488,65 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>400000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1569,7 +1666,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +1906,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>199285.7142857141</v>
+        <v>489285.7142857141</v>
       </c>
     </row>
     <row r="35">
@@ -1839,7 +1936,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>299285.7142857141</v>
+        <v>589285.7142857141</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,20 +1007,63 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>684</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Như Ý</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>800000</v>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>900000</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1416,7 @@
         <v>0.1</v>
       </c>
       <c r="S2" t="n">
-        <v>240000</v>
+        <v>90000</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1470,7 +1513,7 @@
         <v>0.1</v>
       </c>
       <c r="S3" t="n">
-        <v>160000</v>
+        <v>60000.00000000001</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1529,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>400000</v>
+        <v>150000</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -1586,7 +1629,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -1596,7 +1639,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2089285.714285714</v>
+        <v>2553571.428571429</v>
       </c>
     </row>
     <row r="4">
@@ -1646,7 +1689,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>800000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1709,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>400000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="11">
@@ -1906,7 +1949,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>489285.7142857141</v>
+        <v>803571.4285714286</v>
       </c>
     </row>
     <row r="35">
@@ -1936,7 +1979,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>589285.7142857141</v>
+        <v>903571.4285714286</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
@@ -1416,7 +1416,7 @@
         <v>0.1</v>
       </c>
       <c r="S2" t="n">
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="11">
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803571.4285714286</v>
+        <v>823571.4285714286</v>
       </c>
     </row>
     <row r="35">
@@ -1979,7 +1979,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>903571.4285714286</v>
+        <v>923571.4285714286</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,20 +1050,63 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>692</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Phan Thị Diễm My</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>900000</v>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +1732,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>900000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="9">
@@ -1949,7 +1992,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>823571.4285714286</v>
+        <v>923571.4285714286</v>
       </c>
     </row>
     <row r="35">
@@ -1979,7 +2022,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>923571.4285714286</v>
+        <v>1023571.428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,20 +1093,63 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>699</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị My Sa</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>1000000</v>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1100000</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +1690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1672,7 +1715,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -1682,7 +1725,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2553571.428571429</v>
+        <v>3714285.714285715</v>
       </c>
     </row>
     <row r="4">
@@ -1732,7 +1775,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="9">
@@ -1768,17 +1811,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Phí sinh hoạt tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-750000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1788,27 +1831,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1818,7 +1861,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1828,7 +1871,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1838,7 +1881,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1848,47 +1891,47 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1898,27 +1941,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1928,7 +1971,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1938,7 +1981,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1948,7 +1991,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1958,7 +2001,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1968,7 +2011,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1978,51 +2021,61 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>923571.4285714286</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100000</v>
+        <v>1434285.714285715</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>1023571.428571429</v>
+      <c r="B38" t="n">
+        <v>1534285.714285715</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-29 Lâm Hoàng Phú 8-2024.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1136,20 +1136,63 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>708</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Hân</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>1100000</v>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>1200000</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1748,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
@@ -1715,7 +1758,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -1725,7 +1768,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3714285.714285715</v>
+        <v>3857142.857142857</v>
       </c>
     </row>
     <row r="4">
@@ -1775,7 +1818,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1100000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="9">
@@ -2045,7 +2088,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1434285.714285715</v>
+        <v>1677142.857142857</v>
       </c>
     </row>
     <row r="36">
@@ -2075,7 +2118,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1534285.714285715</v>
+        <v>1777142.857142857</v>
       </c>
     </row>
   </sheetData>
